--- a/results/convolutiontbbgrppi.xlsx
+++ b/results/convolutiontbbgrppi.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmb21/Documents/Papers/HLPP2019/5c9a48ac1625513e446f5241/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7209588-4179-B34B-B1F6-C4919204C61D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359BEE8E-D321-B847-A6EE-B1A2218C9E96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18400" yWindow="-27480" windowWidth="48840" windowHeight="25860" activeTab="1" xr2:uid="{26CEF471-A6CF-4748-810E-5D2B68105A0B}"/>
+    <workbookView xWindow="-18400" yWindow="-27480" windowWidth="48840" windowHeight="25860" activeTab="2" xr2:uid="{26CEF471-A6CF-4748-810E-5D2B68105A0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -542,7 +543,7 @@
   <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D6" sqref="D6:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -567,7 +568,7 @@
         <v>131.97399999999999</v>
       </c>
       <c r="D4">
-        <v>60.7</v>
+        <v>128.54</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -588,7 +589,7 @@
       </c>
       <c r="E6">
         <f>D4/B6</f>
-        <v>0.46153518616519773</v>
+        <v>0.97735968417915176</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -600,7 +601,7 @@
       </c>
       <c r="E7">
         <f>D4/B12</f>
-        <v>0.91904444813879127</v>
+        <v>1.9461939598642539</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -612,7 +613,7 @@
       </c>
       <c r="E8">
         <f>D4/B18</f>
-        <v>1.7572870961279465</v>
+        <v>3.7212797913720959</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -624,7 +625,7 @@
       </c>
       <c r="E9">
         <f>D4/B24</f>
-        <v>2.4916282113064923</v>
+        <v>5.276340861307026</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -636,7 +637,7 @@
       </c>
       <c r="E10">
         <f>D4/B30</f>
-        <v>3.2287130998518094</v>
+        <v>6.8372122216631226</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -648,7 +649,7 @@
       </c>
       <c r="E11">
         <f>D4/B36</f>
-        <v>4.1072680374701935</v>
+        <v>8.6976644734171114</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -664,7 +665,7 @@
       </c>
       <c r="E12">
         <f>D4/B42</f>
-        <v>4.6256147800203928</v>
+        <v>9.795329881776297</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -676,7 +677,7 @@
       </c>
       <c r="E13">
         <f>D4/B48</f>
-        <v>5.2283235600146085</v>
+        <v>11.07164267552352</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -688,7 +689,7 @@
       </c>
       <c r="E14">
         <f>D4/B54</f>
-        <v>5.9425094032624077</v>
+        <v>12.584022383778416</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -700,7 +701,7 @@
       </c>
       <c r="E15">
         <f>D4/B60</f>
-        <v>6.7868896523301183</v>
+        <v>14.37210536920121</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -712,7 +713,7 @@
       </c>
       <c r="E16">
         <f>D4/B66</f>
-        <v>7.848463369139739</v>
+        <v>16.620123253199704</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -724,7 +725,7 @@
       </c>
       <c r="E17">
         <f>D4/B72</f>
-        <v>8.0532432148440769</v>
+        <v>17.053770722175578</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -740,7 +741,7 @@
       </c>
       <c r="E18">
         <f>D4/B78</f>
-        <v>8.2528039139228486</v>
+        <v>17.476365981806307</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -752,7 +753,7 @@
       </c>
       <c r="E19">
         <f>D4/B84</f>
-        <v>9.7126899894968535</v>
+        <v>20.567861140855445</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -764,7 +765,7 @@
       </c>
       <c r="E20">
         <f>D4/B90</f>
-        <v>9.8446076526498061</v>
+        <v>20.847213635446554</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1174,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E183CD5-7ED8-AD4D-9CCF-9B27D1BADF60}">
   <dimension ref="A1:J324"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1213,34 +1214,34 @@
         <v>65.590199999999996</v>
       </c>
       <c r="C3">
-        <v>60.7</v>
+        <v>128.691</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
         <f>C3/B6</f>
-        <v>0.9238610634721468</v>
+        <v>1.9586919953755197</v>
       </c>
       <c r="F3">
         <f>C3/B60</f>
-        <v>1.3476705946713063</v>
+        <v>2.85721707576351</v>
       </c>
       <c r="G3">
         <f>C3/B114</f>
-        <v>2.1139307689414468</v>
+        <v>4.4817770112989086</v>
       </c>
       <c r="H3">
         <f>C3/B168</f>
-        <v>2.8239099102955012</v>
+        <v>5.9870146666530202</v>
       </c>
       <c r="I3">
         <f>C3/B222</f>
-        <v>3.5268921166117204</v>
+        <v>7.4774180128316132</v>
       </c>
       <c r="J3">
         <f>C3/B276</f>
-        <v>4.2277731963358374</v>
+        <v>8.9633667283303993</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1252,27 +1253,27 @@
       </c>
       <c r="E4">
         <f>C3/B12</f>
-        <v>1.3446952326898736</v>
+        <v>2.850908965240404</v>
       </c>
       <c r="F4">
         <f>C3/B66</f>
-        <v>1.7583958331522795</v>
+        <v>3.7280019466919274</v>
       </c>
       <c r="G4">
         <f>C3/B120</f>
-        <v>2.4984379617685484</v>
+        <v>5.2969766019432658</v>
       </c>
       <c r="H4">
         <f>C3/B174</f>
-        <v>3.2363356789213782</v>
+        <v>6.8614048575958995</v>
       </c>
       <c r="I4">
         <f>C3/B228</f>
-        <v>4.1122042363155735</v>
+        <v>8.7183472055302715</v>
       </c>
       <c r="J4">
         <f>C3/B282</f>
-        <v>4.6391122252453298</v>
+        <v>9.8354529057503584</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1284,27 +1285,27 @@
       </c>
       <c r="E5">
         <f>C3/B18</f>
-        <v>2.1493481844912665</v>
+        <v>4.5568660166452322</v>
       </c>
       <c r="F5">
         <f>C3/B72</f>
-        <v>2.5115336077952706</v>
+        <v>5.3247408817262132</v>
       </c>
       <c r="G5">
         <f>C3/B126</f>
-        <v>3.2355559346065896</v>
+        <v>6.8597517097274565</v>
       </c>
       <c r="H5">
         <f>C3/B180</f>
-        <v>4.1135307376299286</v>
+        <v>8.721159541290497</v>
       </c>
       <c r="I5">
         <f>C3/B234</f>
-        <v>4.6455954092027181</v>
+        <v>9.8491980033889117</v>
       </c>
       <c r="J5">
         <f>C3/B288</f>
-        <v>5.2312253305065761</v>
+        <v>11.090800972128861</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1320,27 +1321,27 @@
       </c>
       <c r="E6">
         <f>C3/B24</f>
-        <v>2.8319201725091934</v>
+        <v>6.0039973462995153</v>
       </c>
       <c r="F6">
         <f>C3/B78</f>
-        <v>3.2324338256360226</v>
+        <v>6.8531324786643388</v>
       </c>
       <c r="G6">
         <f>C3/B132</f>
-        <v>4.1286787411814965</v>
+        <v>8.7532750557065544</v>
       </c>
       <c r="H6">
         <f>C3/B186</f>
-        <v>4.6428096111513097</v>
+        <v>9.843291790258208</v>
       </c>
       <c r="I6">
         <f>C3/B240</f>
-        <v>5.2484315231000167</v>
+        <v>11.127280084666626</v>
       </c>
       <c r="J6">
         <f>C3/B294</f>
-        <v>5.8976586198118577</v>
+        <v>12.503716399377394</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1352,27 +1353,27 @@
       </c>
       <c r="E7">
         <f>C3/B30</f>
-        <v>3.5313117397789759</v>
+        <v>7.4867881236226719</v>
       </c>
       <c r="F7">
         <f>C3/B84</f>
-        <v>4.0513608434305883</v>
+        <v>8.589352196077856</v>
       </c>
       <c r="G7">
         <f>C3/B138</f>
-        <v>4.6106962075314621</v>
+        <v>9.7752076712262177</v>
       </c>
       <c r="H7">
         <f>C3/B192</f>
-        <v>5.2515828287949402</v>
+        <v>11.133961216152382</v>
       </c>
       <c r="I7">
         <f>C3/B240</f>
-        <v>5.2484315231000167</v>
+        <v>11.127280084666626</v>
       </c>
       <c r="J7">
         <f>C3/B300</f>
-        <v>6.8061260965487671</v>
+        <v>14.429772215666514</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1384,27 +1385,27 @@
       </c>
       <c r="E8">
         <f>C3/B36</f>
-        <v>4.2422988647132991</v>
+        <v>8.9941628204088815</v>
       </c>
       <c r="F8">
         <f>C3/B90</f>
-        <v>4.6270251810790501</v>
+        <v>9.8098269782247787</v>
       </c>
       <c r="G8">
         <f>C3/B144</f>
-        <v>5.2814389180271961</v>
+        <v>11.197259568366357</v>
       </c>
       <c r="H8">
         <f>C3/B198</f>
-        <v>5.9108215749856381</v>
+        <v>12.53162338231428</v>
       </c>
       <c r="I8">
         <f>C3/B252</f>
-        <v>6.7996211031561895</v>
+        <v>14.415980879510265</v>
       </c>
       <c r="J8">
         <f>C3/B306</f>
-        <v>7.8387232411558037</v>
+        <v>16.618997242629021</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1416,27 +1417,27 @@
       </c>
       <c r="E9">
         <f>C3/B42</f>
-        <v>5.122795172588404</v>
+        <v>10.860916533040763</v>
       </c>
       <c r="F9">
         <f>C3/B102</f>
-        <v>5.9321835126344764</v>
+        <v>12.576913153615212</v>
       </c>
       <c r="G9">
         <f>C3/B150</f>
-        <v>5.9182789995670984</v>
+        <v>12.547433982426515</v>
       </c>
       <c r="H9">
         <f>C3/B210</f>
-        <v>7.8786270888745484</v>
+        <v>16.70359800155444</v>
       </c>
       <c r="I9">
         <f>C3/B258</f>
-        <v>7.9026353661550051</v>
+        <v>16.754498318053603</v>
       </c>
       <c r="J9">
         <f>C3/B312</f>
-        <v>8.101144997416176</v>
+        <v>17.175361628706508</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1448,27 +1449,27 @@
       </c>
       <c r="E10">
         <f>C3/B48</f>
-        <v>5.8062121687493793</v>
+        <v>12.309839377405705</v>
       </c>
       <c r="F10">
         <f>C3/B102</f>
-        <v>5.9321835126344764</v>
+        <v>12.576913153615212</v>
       </c>
       <c r="G10">
         <f>C3/B156</f>
-        <v>6.7481304232400721</v>
+        <v>14.306814700118419</v>
       </c>
       <c r="H10">
         <f>C3/B210</f>
-        <v>7.8786270888745484</v>
+        <v>16.70359800155444</v>
       </c>
       <c r="I10">
         <f>C3/B264</f>
-        <v>8.097652081109926</v>
+        <v>17.167956243329776</v>
       </c>
       <c r="J10">
         <f>C3/B318</f>
-        <v>8.2824356965064503</v>
+        <v>17.559718817448296</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1480,27 +1481,27 @@
       </c>
       <c r="E11">
         <f>C3/B54</f>
-        <v>6.6947722100998188</v>
+        <v>14.193689134925137</v>
       </c>
       <c r="F11">
         <f>C3/B108</f>
-        <v>6.7935755830611422</v>
+        <v>14.40316367973182</v>
       </c>
       <c r="G11">
         <f>C3/B162</f>
-        <v>7.9434063053633821</v>
+        <v>16.840937410931119</v>
       </c>
       <c r="H11">
         <f>C3/B216</f>
-        <v>8.0994132929118781</v>
+        <v>17.171690215455065</v>
       </c>
       <c r="I11">
         <f>C3/B270</f>
-        <v>8.2859247392322573</v>
+        <v>17.567115990387784</v>
       </c>
       <c r="J11">
         <f>C3/B324</f>
-        <v>9.6892326287382957</v>
+        <v>20.542290547363429</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -3278,6 +3279,638 @@
       <c r="B324">
         <f>SUM(A320:A324)/5</f>
         <v>6.2646860000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F2005A-CC06-764A-AC16-AD28040B528B}">
+  <dimension ref="A1:G105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>128.255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>128.33699999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>128.273</v>
+      </c>
+      <c r="D4">
+        <v>128.54</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f>D4/B5</f>
+        <v>1.0016773849160041</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>128.434</v>
+      </c>
+      <c r="B5">
+        <f>SUM(A2:A5)/4</f>
+        <v>128.32474999999999</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <f>D4/B12</f>
+        <v>1.9998506413088799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <f>D4/B19</f>
+        <v>3.800857987360831</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <f>D4/B26</f>
+        <v>5.3840457329741174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>64.287999999999997</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <f>D4/B33</f>
+        <v>6.9913638652984904</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>64.476799999999997</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <f>D4/B40</f>
+        <v>8.9024881810361887</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>64.122200000000007</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <f>D4/B47</f>
+        <v>10.079924216284716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>64.349999999999994</v>
+      </c>
+      <c r="F11">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <f>D4/B54</f>
+        <v>11.405521571466851</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>64.137</v>
+      </c>
+      <c r="B12">
+        <f>SUM(A8:A12)/5</f>
+        <v>64.274799999999999</v>
+      </c>
+      <c r="F12">
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <f>D4/B61</f>
+        <v>12.960279475813461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>18</v>
+      </c>
+      <c r="G13">
+        <f>D4/B68</f>
+        <v>14.626660576586737</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <f>D4/B75</f>
+        <v>16.867969492254957</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>33.857199999999999</v>
+      </c>
+      <c r="F15">
+        <v>22</v>
+      </c>
+      <c r="G15">
+        <f>D4/B82</f>
+        <v>17.467422184088203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>33.829500000000003</v>
+      </c>
+      <c r="F16">
+        <v>24</v>
+      </c>
+      <c r="G16">
+        <f>D4/B89</f>
+        <v>18.019695215654565</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>33.954700000000003</v>
+      </c>
+      <c r="F17">
+        <v>26</v>
+      </c>
+      <c r="G17">
+        <f>D4/B97</f>
+        <v>21.072594053705441</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>33.684199999999997</v>
+      </c>
+      <c r="F18">
+        <v>28</v>
+      </c>
+      <c r="G18">
+        <f>D4/B105</f>
+        <v>21.436345194866615</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>33.767800000000001</v>
+      </c>
+      <c r="B19">
+        <f>SUM(A15:A19)/5</f>
+        <v>33.818680000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>23.920100000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>23.888999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23.817</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23.900600000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>23.8445</v>
+      </c>
+      <c r="B26">
+        <f>SUM(A22:A26)/5</f>
+        <v>23.87424</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>18.429400000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>18.3218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>18.321899999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>18.471800000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>18.3828</v>
+      </c>
+      <c r="B33">
+        <f>SUM(A29:A33)/5</f>
+        <v>18.385539999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>14.4251</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>14.365600000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>14.601100000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>14.3895</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>14.412000000000001</v>
+      </c>
+      <c r="B40">
+        <f>SUM(A36:A40)/5</f>
+        <v>14.438660000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>12.782500000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>12.747199999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>12.742000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>12.747999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>12.7407</v>
+      </c>
+      <c r="B47">
+        <f>SUM(A43:A47)/5</f>
+        <v>12.752079999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>11.2508</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>11.2597</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>11.263199999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>11.3085</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>11.2677</v>
+      </c>
+      <c r="B54">
+        <f>SUM(A50:A54)/5</f>
+        <v>11.26998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>9.9228799999999993</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>9.9700000000000006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>9.9025499999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>9.8715200000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>9.9230300000000007</v>
+      </c>
+      <c r="B61">
+        <f>SUM(A57:A61)/5</f>
+        <v>9.9179959999999987</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>8.8258100000000006</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>8.8193900000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>8.7986900000000006</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>8.6909700000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>8.8054500000000004</v>
+      </c>
+      <c r="B68">
+        <f>SUM(A64:A68)/5</f>
+        <v>8.788062</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>7.58941</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>7.6687000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>7.62826</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>7.5864399999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>7.6289899999999999</v>
+      </c>
+      <c r="B75">
+        <f>SUM(A71:A75)/5</f>
+        <v>7.6203599999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>7.3441799999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>7.3874599999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>7.3749599999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>7.3288900000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>7.3587199999999999</v>
+      </c>
+      <c r="B82">
+        <f>SUM(A78:A82)/5</f>
+        <v>7.3588420000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>7.2009699999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>7.0843999999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>7.13828</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>7.1051700000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>7.1377100000000002</v>
+      </c>
+      <c r="B89">
+        <f>SUM(A85:A89)/5</f>
+        <v>7.1333060000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>6.0339999999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>6.0362999999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>6.1107399999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>6.1067</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>6.2115900000000002</v>
+      </c>
+      <c r="B97">
+        <f>SUM(A93:A97)/5</f>
+        <v>6.0998660000000005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>6.0362</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>6.0097300000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>5.8975299999999997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>6.0143300000000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>6.024</v>
+      </c>
+      <c r="B105">
+        <f>SUM(A101:A105)/5</f>
+        <v>5.9963580000000007</v>
       </c>
     </row>
   </sheetData>
